--- a/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
+++ b/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
@@ -1061,15 +1061,15 @@
     <row r="32">
       <c r="A32" s="44" t="inlineStr">
         <is>
-          <t>11.02.2026</t>
+          <t>04.02.2026</t>
         </is>
       </c>
       <c r="B32" s="25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C32" s="26" t="inlineStr">
         <is>
-          <t>Vorbereitung: 0,75 Stunden</t>
+          <t>Vorbereitung: 0.75 Stunden</t>
         </is>
       </c>
       <c r="D32" s="16" t="n">
@@ -1083,17 +1083,13 @@
     <row r="33">
       <c r="A33" s="44" t="inlineStr">
         <is>
-          <t>12.02.2026</t>
+          <t>05.02.2026</t>
         </is>
       </c>
       <c r="B33" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="C33" s="26" t="inlineStr">
-        <is>
-          <t>Unterricht</t>
-        </is>
-      </c>
+      <c r="C33" s="26" t="inlineStr"/>
       <c r="D33" s="16" t="n">
         <v>19</v>
       </c>
@@ -1105,7 +1101,7 @@
     <row r="34">
       <c r="A34" s="44" t="inlineStr">
         <is>
-          <t>18.02.2026</t>
+          <t>11.02.2026</t>
         </is>
       </c>
       <c r="B34" s="25" t="n">
@@ -1127,7 +1123,7 @@
     <row r="35">
       <c r="A35" s="44" t="inlineStr">
         <is>
-          <t>19.02.2026</t>
+          <t>12.02.2026</t>
         </is>
       </c>
       <c r="B35" s="25" t="n">
@@ -1149,7 +1145,7 @@
     <row r="36">
       <c r="A36" s="44" t="inlineStr">
         <is>
-          <t>25.02.2026</t>
+          <t>18.02.2026</t>
         </is>
       </c>
       <c r="B36" s="25" t="n">
@@ -1171,7 +1167,7 @@
     <row r="37">
       <c r="A37" s="44" t="inlineStr">
         <is>
-          <t>26.02.2026</t>
+          <t>19.02.2026</t>
         </is>
       </c>
       <c r="B37" s="25" t="n">
@@ -1191,20 +1187,44 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="44" t="n"/>
-      <c r="B38" s="25" t="n"/>
-      <c r="C38" s="26" t="n"/>
-      <c r="D38" s="16" t="n"/>
+      <c r="A38" s="44" t="inlineStr">
+        <is>
+          <t>25.02.2026</t>
+        </is>
+      </c>
+      <c r="B38" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C38" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung: 0,75 Stunden</t>
+        </is>
+      </c>
+      <c r="D38" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E38" s="37">
         <f>ROUND(B38*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="44" t="n"/>
-      <c r="B39" s="17" t="n"/>
-      <c r="C39" s="26" t="n"/>
-      <c r="D39" s="16" t="n"/>
+      <c r="A39" s="44" t="inlineStr">
+        <is>
+          <t>26.02.2026</t>
+        </is>
+      </c>
+      <c r="B39" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="26" t="inlineStr">
+        <is>
+          <t>Unterricht</t>
+        </is>
+      </c>
+      <c r="D39" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E39" s="37">
         <f>ROUND(B39*$D$32,2)</f>
         <v/>

--- a/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
+++ b/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B32" s="25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C32" s="26" t="inlineStr">
         <is>
@@ -1089,7 +1089,11 @@
       <c r="B33" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="C33" s="26" t="inlineStr"/>
+      <c r="C33" s="26" t="inlineStr">
+        <is>
+          <t>Unterricht</t>
+        </is>
+      </c>
       <c r="D33" s="16" t="n">
         <v>19</v>
       </c>

--- a/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
+++ b/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
@@ -987,7 +987,7 @@
       <c r="B24" s="18" t="n"/>
       <c r="C24" s="27" t="inlineStr">
         <is>
-          <t>04.02.2026 bis 26.02.2026</t>
+          <t>04.02.2026 bist 26.02.2026</t>
         </is>
       </c>
       <c r="D24" s="10" t="n"/>

--- a/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
+++ b/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
@@ -987,7 +987,7 @@
       <c r="B24" s="18" t="n"/>
       <c r="C24" s="27" t="inlineStr">
         <is>
-          <t>04.02.2026 bist 26.02.2026</t>
+          <t>02.02.2026 bist 26.02.2026</t>
         </is>
       </c>
       <c r="D24" s="10" t="n"/>
@@ -1061,11 +1061,11 @@
     <row r="32">
       <c r="A32" s="44" t="inlineStr">
         <is>
-          <t>04.02.2026</t>
+          <t>02.02.2026</t>
         </is>
       </c>
       <c r="B32" s="25" t="n">
-        <v>0.75</v>
+        <v>24</v>
       </c>
       <c r="C32" s="26" t="inlineStr">
         <is>

--- a/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
+++ b/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
@@ -987,7 +987,7 @@
       <c r="B24" s="18" t="n"/>
       <c r="C24" s="27" t="inlineStr">
         <is>
-          <t>02.02.2026 bist 26.02.2026</t>
+          <t>04.02.2026 bis 26.02.2026</t>
         </is>
       </c>
       <c r="D24" s="10" t="n"/>
@@ -1061,7 +1061,7 @@
     <row r="32">
       <c r="A32" s="44" t="inlineStr">
         <is>
-          <t>02.02.2026</t>
+          <t>04.02.2026</t>
         </is>
       </c>
       <c r="B32" s="25" t="n">

--- a/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
+++ b/Muster_Honorarrechnung-Lehrkräfte_February.xlsx
@@ -974,8 +974,10 @@
           <t xml:space="preserve">Hannover, </t>
         </is>
       </c>
-      <c r="E23" s="47" t="n">
-        <v>46079</v>
+      <c r="E23" s="47" t="inlineStr">
+        <is>
+          <t>26.02.2026</t>
+        </is>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
@@ -1065,11 +1067,11 @@
         </is>
       </c>
       <c r="B32" s="25" t="n">
-        <v>24</v>
+        <v>0.75</v>
       </c>
       <c r="C32" s="26" t="inlineStr">
         <is>
-          <t>Vorbereitung: 0.75 Stunden</t>
+          <t>Vorbereitung für Unterricht: 0.75 Stunden</t>
         </is>
       </c>
       <c r="D32" s="16" t="n">
@@ -1113,7 +1115,7 @@
       </c>
       <c r="C34" s="26" t="inlineStr">
         <is>
-          <t>Vorbereitung: 0,75 Stunden</t>
+          <t>Vorbereitung für Unterricht: 0,75 Stunden</t>
         </is>
       </c>
       <c r="D34" s="16" t="n">
@@ -1157,7 +1159,7 @@
       </c>
       <c r="C36" s="26" t="inlineStr">
         <is>
-          <t>Vorbereitung: 0,75 Stunden</t>
+          <t>Vorbereitung für Unterricht: 0,75 Stunden</t>
         </is>
       </c>
       <c r="D36" s="16" t="n">
@@ -1201,7 +1203,7 @@
       </c>
       <c r="C38" s="26" t="inlineStr">
         <is>
-          <t>Vorbereitung: 0,75 Stunden</t>
+          <t>Vorbereitung für Unterricht: 0,75 Stunden</t>
         </is>
       </c>
       <c r="D38" s="16" t="n">
